--- a/DateBase/orders/name003_2024-9-15.xlsx
+++ b/DateBase/orders/name003_2024-9-15.xlsx
@@ -454,8 +454,23 @@
       <c r="D2" t="str">
         <v>800 g</v>
       </c>
+      <c r="E2" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F2" t="str">
         <v>20</v>
+      </c>
+      <c r="G2" t="str">
+        <v>12</v>
+      </c>
+      <c r="H2" t="str">
+        <v>13.31</v>
+      </c>
+      <c r="K2">
+        <v>32.37883333333333</v>
+      </c>
+      <c r="L2">
+        <v>647.5766666666666</v>
       </c>
     </row>
     <row r="3">
@@ -471,8 +486,23 @@
       <c r="D3" t="str">
         <v>600 g</v>
       </c>
+      <c r="E3" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F3" t="str">
         <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <v>13</v>
+      </c>
+      <c r="H3" t="str">
+        <v>14.53</v>
+      </c>
+      <c r="K3">
+        <v>33.59883333333333</v>
+      </c>
+      <c r="L3">
+        <v>335.98833333333334</v>
       </c>
     </row>
     <row r="4">
@@ -488,8 +518,23 @@
       <c r="D4" t="str">
         <v>800 g</v>
       </c>
+      <c r="E4" t="str">
+        <v>0.8</v>
+      </c>
       <c r="F4" t="str">
         <v>20</v>
+      </c>
+      <c r="G4" t="str">
+        <v>12</v>
+      </c>
+      <c r="H4" t="str">
+        <v>15.23</v>
+      </c>
+      <c r="K4">
+        <v>34.298833333333334</v>
+      </c>
+      <c r="L4">
+        <v>685.9766666666667</v>
       </c>
     </row>
     <row r="5">
@@ -505,8 +550,23 @@
       <c r="D5" t="str">
         <v>600 g</v>
       </c>
+      <c r="E5" t="str">
+        <v>0.6</v>
+      </c>
       <c r="F5" t="str">
         <v>10</v>
+      </c>
+      <c r="G5" t="str">
+        <v>14</v>
+      </c>
+      <c r="H5" t="str">
+        <v>16.12</v>
+      </c>
+      <c r="K5">
+        <v>35.188833333333335</v>
+      </c>
+      <c r="L5">
+        <v>351.8883333333333</v>
       </c>
     </row>
   </sheetData>
@@ -548,22 +608,22 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>123.34</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>342.12</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>234.12</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>123.23</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>321.32</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>1144.13</v>
       </c>
       <c r="G2" t="str">
         <v>020102010</v>

--- a/DateBase/orders/name003_2024-9-15.xlsx
+++ b/DateBase/orders/name003_2024-9-15.xlsx
@@ -461,16 +461,16 @@
         <v>20</v>
       </c>
       <c r="G2" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H2" t="str">
-        <v>13.31</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>32.37883333333333</v>
+        <v>19.068833333333334</v>
       </c>
       <c r="L2">
-        <v>647.5766666666666</v>
+        <v>381.37666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -493,16 +493,16 @@
         <v>10</v>
       </c>
       <c r="G3" t="str">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="str">
-        <v>14.53</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>33.59883333333333</v>
+        <v>19.068833333333334</v>
       </c>
       <c r="L3">
-        <v>335.98833333333334</v>
+        <v>190.68833333333333</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         <v>20</v>
       </c>
       <c r="G4" t="str">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H4" t="str">
-        <v>15.23</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>34.298833333333334</v>
+        <v>19.068833333333334</v>
       </c>
       <c r="L4">
-        <v>685.9766666666667</v>
+        <v>381.37666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -557,16 +557,16 @@
         <v>10</v>
       </c>
       <c r="G5" t="str">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H5" t="str">
-        <v>16.12</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>35.188833333333335</v>
+        <v>19.068833333333334</v>
       </c>
       <c r="L5">
-        <v>351.8883333333333</v>
+        <v>190.68833333333333</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name003_2024-9-15.xlsx
+++ b/DateBase/orders/name003_2024-9-15.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -449,16 +449,16 @@
         <v>洋桔梗Lisianthus</v>
       </c>
       <c r="C2" t="str">
-        <v>8_冰淇淋洋桔梗_Icecream Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="D2" t="str">
-        <v>800 g</v>
+        <v>600 g</v>
       </c>
       <c r="E2" t="str">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F2" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G2" t="str">
         <v>0</v>
@@ -467,30 +467,30 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>19.068833333333334</v>
+        <v>28.603250000000003</v>
       </c>
       <c r="L2">
-        <v>381.37666666666667</v>
+        <v>286.0325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="str">
         <v>洋桔梗Lisianthus</v>
       </c>
       <c r="C3" t="str">
-        <v>4_阳光粉洋桔梗_Sunshine Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="D3" t="str">
-        <v>600 g</v>
+        <v>800 g</v>
       </c>
       <c r="E3" t="str">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="str">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G3" t="str">
         <v>0</v>
@@ -499,10 +499,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.068833333333334</v>
+        <v>28.603250000000003</v>
       </c>
       <c r="L3">
-        <v>190.68833333333333</v>
+        <v>572.065</v>
       </c>
     </row>
     <row r="4">
@@ -513,16 +513,16 @@
         <v>洋桔梗Lisianthus</v>
       </c>
       <c r="C4" t="str">
-        <v>10_波浪粉洋桔梗_Wavy Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
       </c>
       <c r="D4" t="str">
-        <v>800 g</v>
+        <v>600 g</v>
       </c>
       <c r="E4" t="str">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="F4" t="str">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" t="str">
         <v>0</v>
@@ -531,47 +531,15 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>19.068833333333334</v>
+        <v>28.603250000000003</v>
       </c>
       <c r="L4">
-        <v>381.37666666666667</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>2</v>
-      </c>
-      <c r="B5" t="str">
-        <v>洋桔梗Lisianthus</v>
-      </c>
-      <c r="C5" t="str">
-        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners</v>
-      </c>
-      <c r="D5" t="str">
-        <v>600 g</v>
-      </c>
-      <c r="E5" t="str">
-        <v>0.6</v>
-      </c>
-      <c r="F5" t="str">
-        <v>10</v>
-      </c>
-      <c r="G5" t="str">
-        <v>0</v>
-      </c>
-      <c r="H5" t="str">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>19.068833333333334</v>
-      </c>
-      <c r="L5">
-        <v>190.68833333333333</v>
+        <v>286.0325</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L4"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -626,7 +594,7 @@
         <v>1144.13</v>
       </c>
       <c r="G2" t="str">
-        <v>020102010</v>
+        <v>0102010</v>
       </c>
     </row>
   </sheetData>
